--- a/biology/Zoologie/Gazella_gazella_cora/Gazella_gazella_cora.xlsx
+++ b/biology/Zoologie/Gazella_gazella_cora/Gazella_gazella_cora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazella gazella cora est une sous-espèce de Gazella gazella (famille des Bovidae). Son nom vernaculaire français est « Gazelle des montagnes » et, en anglais, « Arabian Mountain Gazelle ».
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gazella gazella cora se rencontre dans la péninsule arabique.
 </t>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du grec ancien κόρη, kórê, « jeune fille », lui a été donné au fait que l'auteur a tout d'abord pensé qu'il s'agissait d'un juvénile de Procapra gutturosa[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du grec ancien κόρη, kórê, « jeune fille », lui a été donné au fait que l'auteur a tout d'abord pensé qu'il s'agissait d'un juvénile de Procapra gutturosa.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Charles Hamilton Smith, « The Seventh Order of the Mammalia - The Ruminantia (Pecora. Lin.) », The class Mammalia, vol. 4,‎ 1827, p. 1-428 (lire en ligne, consulté le 16 mars 2019). 
 </t>
